--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -14,18 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>chi_square_test_statistic</t>
+  </si>
+  <si>
+    <t>chi_square_critical_value</t>
+  </si>
+  <si>
+    <t>chi_square_p_value</t>
+  </si>
+  <si>
+    <t>chi_square_rejected</t>
+  </si>
+  <si>
+    <t>kolmogorov_smirnov_test_statistic</t>
+  </si>
+  <si>
+    <t>kolmogorov_smirnov_critical_value</t>
+  </si>
+  <si>
+    <t>kolmogorov_smirnov_p_value</t>
+  </si>
+  <si>
+    <t>kolmogorov_smirnov_rejected</t>
+  </si>
+  <si>
+    <t>anderson_darling_test_statistic</t>
+  </si>
+  <si>
+    <t>anderson_darling_critical_value</t>
+  </si>
+  <si>
+    <t>anderson_darling_p_value</t>
+  </si>
+  <si>
+    <t>anderson_darling_rejected</t>
+  </si>
+  <si>
+    <t>sse_</t>
+  </si>
+  <si>
+    <t>parameters_</t>
+  </si>
+  <si>
+    <t>n_test_passed_</t>
+  </si>
+  <si>
+    <t>n_test_nan_</t>
   </si>
 </sst>
 </file>
@@ -383,44 +419,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>